--- a/experiment result/128_0.4_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.4_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04685984319364185</v>
+        <v>0.003535015644960845</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05937502260382379</v>
+        <v>0.01326006216488768</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06601392098570449</v>
+        <v>0.02354640636784851</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06791749910707931</v>
+        <v>0.01770770811014503</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05502010809703963</v>
+        <v>0.005131836578246709</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07291099134804677</v>
+        <v>0.02059554445380944</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07451661697362855</v>
+        <v>0.02232271491863213</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04974318666614117</v>
+        <v>0.004768612190039408</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07478137052657843</v>
+        <v>0.01844258410372491</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07770439308288976</v>
+        <v>0.03505512519911416</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05314075548976045</v>
+        <v>0.01550837306834983</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08166143965911532</v>
+        <v>0.03276715630196064</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08140840520781681</v>
+        <v>0.01292254080585538</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05711718775347687</v>
+        <v>0.008122746391492261</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08058982366329689</v>
+        <v>0.02006404514708927</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0666101514203099</v>
+        <v>0.01542223420686824</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07769573877288978</v>
+        <v>0.01166424916739465</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03628369551728305</v>
+        <v>0.001279238378457617</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07734080178693944</v>
+        <v>0.04876207346758447</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04626116099225188</v>
+        <v>0.009943564852597311</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03726487997223211</v>
+        <v>0.004050984034607865</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05302675547618478</v>
+        <v>0.006090161741275034</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06162864272755186</v>
+        <v>0.02345594966949728</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03661305581384627</v>
+        <v>0.007934300898781162</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02468867725476866</v>
+        <v>0.0006716646039369936</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0616793548561546</v>
+        <v>0.01524033892091975</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05979748538826626</v>
+        <v>0.005460920004674493</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06045889057321249</v>
+        <v>0.02429405764576275</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06178938711004946</v>
+        <v>0.02214181868044154</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04521609095506954</v>
+        <v>0.01623961069599587</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02181591137693696</v>
+        <v>0.0003228463412517192</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04392047879142086</v>
+        <v>0.004343370113167506</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08657438024983002</v>
+        <v>0.02651089132272371</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04695760386294892</v>
+        <v>0.01690333952601736</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06352106623251808</v>
+        <v>0.01506595291098181</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05833920505128146</v>
+        <v>0.03399676990144117</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06009179598884436</v>
+        <v>0.01403838670239987</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05673677128857069</v>
+        <v>0.005067031867592281</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06115964223642534</v>
+        <v>0.01586993411104744</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06226175352114331</v>
+        <v>0.02296682078931065</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06577747706166928</v>
+        <v>0.0280416628558803</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05042320287714428</v>
+        <v>0.02810517972182442</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04889446228516464</v>
+        <v>0.02918956988823896</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05912500419221193</v>
+        <v>0.02265514285678931</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06842037516591867</v>
+        <v>0.03280428201742274</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07385236057412117</v>
+        <v>0.02537112783146271</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06758921381250838</v>
+        <v>0.03245740624992635</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03433317644860857</v>
+        <v>0.00363211520770904</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04519498470150358</v>
+        <v>0.005872539130971111</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04053161624095988</v>
+        <v>0.0031384219142353</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07009807127690912</v>
+        <v>0.01404405813538912</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06935600490166757</v>
+        <v>0.02220899770290446</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02752794514169061</v>
+        <v>0.003295983177534554</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02742681255912745</v>
+        <v>0.002931527650687529</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05905801567968028</v>
+        <v>0.01674994195529748</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06009911497274784</v>
+        <v>0.02277834940780353</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0548267256834279</v>
+        <v>0.01607918822529916</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07847844511478921</v>
+        <v>0.01826774172434305</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04119364397110854</v>
+        <v>0.01385530250633518</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06668375655430867</v>
+        <v>0.02032074564623124</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01818176240213546</v>
+        <v>0.001645641205249977</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03591256084303143</v>
+        <v>0.003801536570551814</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04631083084294804</v>
+        <v>0.007056018983324445</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.04543677609481239</v>
+        <v>0.007663827123698229</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07231528377410371</v>
+        <v>0.008307864711019266</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08713301565873829</v>
+        <v>0.01865364061600137</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06098071216198307</v>
+        <v>0.01152639628985963</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03770957565908818</v>
+        <v>0.01069829877372665</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04203254536916807</v>
+        <v>0.009784103418158671</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04257565418403663</v>
+        <v>0.0117937857199042</v>
       </c>
     </row>
   </sheetData>
